--- a/Документация/WebTours Профиль нагрузки.xlsx
+++ b/Документация/WebTours Профиль нагрузки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="79">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Оплата билета</t>
   </si>
   <si>
-    <t>Отмена бронирования билета</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
@@ -343,27 +340,9 @@
     <t>payment_details</t>
   </si>
   <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
-    <t>Cancel_reservation</t>
-  </si>
-  <si>
-    <t>Check_ticket</t>
-  </si>
-  <si>
-    <t>fing_flight</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>logout</t>
   </si>
   <si>
-    <t>select_ticket</t>
-  </si>
-  <si>
     <t>Transaction Name</t>
   </si>
   <si>
@@ -382,18 +361,6 @@
     <t>Подтверждение максимума</t>
   </si>
   <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -538,34 +505,40 @@
     <t>90 Percent</t>
   </si>
   <si>
-    <t>ByeTicket_Transaction</t>
-  </si>
-  <si>
-    <t>CreateUsers_Transaction</t>
-  </si>
-  <si>
-    <t>vuser_end_Transaction</t>
-  </si>
-  <si>
-    <t>vuser_init_Transaction</t>
-  </si>
-  <si>
-    <t>DeleteTicket_Transaction</t>
-  </si>
-  <si>
-    <t>Search_Ticket_Transaction</t>
-  </si>
-  <si>
-    <t>UserCaseName_Transaction</t>
-  </si>
-  <si>
-    <t>ViewReservation_Transaction</t>
-  </si>
-  <si>
     <t>SLA Status</t>
   </si>
   <si>
     <t>No Data</t>
+  </si>
+  <si>
+    <t>польз</t>
+  </si>
+  <si>
+    <t>Профиль для 10 пользователей</t>
+  </si>
+  <si>
+    <t>Переход на доашнюю страницу</t>
+  </si>
+  <si>
+    <t>Переход по кнопке flights</t>
+  </si>
+  <si>
+    <t>Переход по кнопке itinerary</t>
+  </si>
+  <si>
+    <t>Выбор и удаление брони</t>
+  </si>
+  <si>
+    <t>Переход к созданию нового пользователя</t>
+  </si>
+  <si>
+    <t>Заполнение данных нового пользователя</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки continue</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя</t>
   </si>
 </sst>
 </file>
@@ -575,12 +548,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,74 +1273,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1367,145 +1384,171 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="34"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="34" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="16" xfId="34" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" xfId="34" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="18" xfId="36" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="36" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="28" borderId="0" xfId="36" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="28" borderId="19" xfId="36" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="29" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="29" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="21" borderId="0" xfId="29" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="21" borderId="19" xfId="29" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="34"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="15" xfId="34" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" xfId="34" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="17" xfId="34" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="18" xfId="36" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="36" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="28" borderId="0" xfId="36" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="28" borderId="19" xfId="36" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="18" xfId="29" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="29" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="21" borderId="0" xfId="29" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="21" borderId="19" xfId="29" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="31" fillId="36" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="33" fillId="36" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="7" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="7" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="7" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="21" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="2" xfId="37" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="21" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="2" xfId="37" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="31" fillId="5" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="31" fillId="5" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="33" fillId="5" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="33" fillId="5" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="67"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="67"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="21" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="95"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="11" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="109">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="49"/>
     <cellStyle name="20% — акцент1 3" xfId="69"/>
+    <cellStyle name="20% — акцент1 4" xfId="83"/>
+    <cellStyle name="20% — акцент1 5" xfId="97"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="52"/>
     <cellStyle name="20% — акцент2 3" xfId="71"/>
+    <cellStyle name="20% — акцент2 4" xfId="85"/>
+    <cellStyle name="20% — акцент2 5" xfId="99"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="55"/>
     <cellStyle name="20% — акцент3 3" xfId="73"/>
+    <cellStyle name="20% — акцент3 4" xfId="87"/>
+    <cellStyle name="20% — акцент3 5" xfId="101"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="58"/>
     <cellStyle name="20% — акцент4 3" xfId="75"/>
+    <cellStyle name="20% — акцент4 4" xfId="89"/>
+    <cellStyle name="20% — акцент4 5" xfId="103"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="61"/>
     <cellStyle name="20% — акцент5 3" xfId="77"/>
+    <cellStyle name="20% — акцент5 4" xfId="91"/>
+    <cellStyle name="20% — акцент5 5" xfId="105"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="64"/>
     <cellStyle name="20% — акцент6 3" xfId="79"/>
+    <cellStyle name="20% — акцент6 4" xfId="93"/>
+    <cellStyle name="20% — акцент6 5" xfId="107"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="50"/>
     <cellStyle name="40% — акцент1 3" xfId="70"/>
+    <cellStyle name="40% — акцент1 4" xfId="84"/>
+    <cellStyle name="40% — акцент1 5" xfId="98"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="53"/>
     <cellStyle name="40% — акцент2 3" xfId="72"/>
+    <cellStyle name="40% — акцент2 4" xfId="86"/>
+    <cellStyle name="40% — акцент2 5" xfId="100"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="56"/>
     <cellStyle name="40% — акцент3 3" xfId="74"/>
+    <cellStyle name="40% — акцент3 4" xfId="88"/>
+    <cellStyle name="40% — акцент3 5" xfId="102"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="59"/>
     <cellStyle name="40% — акцент4 3" xfId="76"/>
+    <cellStyle name="40% — акцент4 4" xfId="90"/>
+    <cellStyle name="40% — акцент4 5" xfId="104"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="62"/>
     <cellStyle name="40% — акцент5 3" xfId="78"/>
+    <cellStyle name="40% — акцент5 4" xfId="92"/>
+    <cellStyle name="40% — акцент5 5" xfId="106"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="65"/>
     <cellStyle name="40% — акцент6 3" xfId="80"/>
+    <cellStyle name="40% — акцент6 4" xfId="94"/>
+    <cellStyle name="40% — акцент6 5" xfId="108"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="51"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1542,11 +1585,15 @@
     <cellStyle name="Обычный 4" xfId="45"/>
     <cellStyle name="Обычный 5" xfId="46"/>
     <cellStyle name="Обычный 6" xfId="67"/>
+    <cellStyle name="Обычный 7" xfId="81"/>
+    <cellStyle name="Обычный 8" xfId="95"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
     <cellStyle name="Примечание 3" xfId="48"/>
     <cellStyle name="Примечание 4" xfId="68"/>
+    <cellStyle name="Примечание 5" xfId="82"/>
+    <cellStyle name="Примечание 6" xfId="96"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -2287,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:O14"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2305,144 +2352,144 @@
     <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.90625" style="54"/>
+    <col min="22" max="22" width="10.90625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="T1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="U1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="V1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>1</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="25">
         <f t="shared" ref="D2:D11" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
-        <v>111</v>
-      </c>
-      <c r="F2" s="29">
+        <v>130</v>
+      </c>
+      <c r="F2" s="26">
         <f>60/E2*C2</f>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="G2" s="28">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G2" s="25">
         <v>20</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="27">
         <f>D2*F2*G2</f>
-        <v>10.810810810810811</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="16">
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="13">
         <v>521.82449903038139</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="13"/>
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="47">
+      <c r="M2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="44">
         <v>2.1156999999999999</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="44">
         <v>16.089300000000001</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="19">
         <f>O2+N2</f>
         <v>18.205000000000002</v>
       </c>
-      <c r="Q2" s="47">
-        <v>69</v>
-      </c>
-      <c r="R2" s="47">
+      <c r="Q2" s="44">
+        <v>65</v>
+      </c>
+      <c r="R2" s="44">
         <v>3</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="46">
         <f>60/(Q2)</f>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="T2" s="19">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="T2" s="16">
         <v>20</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="17">
         <f>ROUND(R2*S2*T2,0)</f>
-        <v>52</v>
-      </c>
-      <c r="V2" s="55">
+        <v>55</v>
+      </c>
+      <c r="V2" s="52">
         <f>R2/W$2</f>
         <v>0.3</v>
       </c>
@@ -2451,1529 +2498,1607 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="A3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="25">
         <f>VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
-        <v>111</v>
-      </c>
-      <c r="F3" s="29">
+        <v>130</v>
+      </c>
+      <c r="F3" s="26">
         <f>60/E3*C3</f>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="G3" s="28">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G3" s="25">
         <v>20</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <f>D3*F3*G3</f>
-        <v>10.810810810810811</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="16">
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="13">
         <v>429.51680672268913</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="13"/>
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="47">
+      <c r="M3" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="44">
         <v>1.6526000000000001</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="44">
         <v>10.054399999999999</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="19">
         <f t="shared" ref="P3:P5" si="1">N3+O3</f>
         <v>11.706999999999999</v>
       </c>
-      <c r="Q3" s="47">
-        <v>55</v>
-      </c>
-      <c r="R3" s="47">
+      <c r="Q3" s="44">
+        <v>52</v>
+      </c>
+      <c r="R3" s="44">
         <v>1</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="46">
         <f t="shared" ref="S3:S5" si="2">60/(Q3)</f>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="T3" s="19">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="T3" s="16">
         <v>20</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="17">
         <f t="shared" ref="U3:U5" si="3">ROUND(R3*S3*T3,0)</f>
-        <v>22</v>
-      </c>
-      <c r="V3" s="55">
+        <v>23</v>
+      </c>
+      <c r="V3" s="52">
         <f>R3/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="A4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="25">
         <f t="shared" ref="E4:E11" si="4">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
-        <v>111</v>
-      </c>
-      <c r="F4" s="29">
+        <v>130</v>
+      </c>
+      <c r="F4" s="26">
         <f t="shared" ref="F4:F30" si="5">60/E4*C4</f>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="G4" s="28">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G4" s="25">
         <v>20</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <f t="shared" ref="H4:H30" si="6">D4*F4*G4</f>
-        <v>10.810810810810811</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="16">
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="13">
         <v>308.92857142857144</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="13"/>
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="47">
+      <c r="M4" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="44">
         <v>1.2985</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="44">
         <v>12.036199999999999</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="19">
         <f t="shared" si="1"/>
         <v>13.3347</v>
       </c>
-      <c r="Q4" s="47">
-        <v>41</v>
-      </c>
-      <c r="R4" s="47">
+      <c r="Q4" s="44">
+        <v>39</v>
+      </c>
+      <c r="R4" s="44">
         <v>1</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="46">
         <f t="shared" si="2"/>
-        <v>1.4634146341463414</v>
-      </c>
-      <c r="T4" s="19">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="T4" s="16">
         <v>20</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="V4" s="55">
+        <v>31</v>
+      </c>
+      <c r="V4" s="52">
         <f t="shared" ref="V4:V5" si="7">R4/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="A5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="29">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="F5" s="33">
+        <v>73</v>
+      </c>
+      <c r="F5" s="30">
         <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G5" s="32">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="G5" s="29">
         <v>20</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="31">
         <f t="shared" si="6"/>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="16">
+        <v>32.87671232876712</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="13">
         <v>271.42857142857144</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="13"/>
       <c r="L5">
         <v>2</v>
       </c>
-      <c r="M5" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="47">
+      <c r="M5" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="44">
         <v>1.5255000000000001</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="44">
         <v>12.0532</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="19">
         <f t="shared" si="1"/>
         <v>13.578700000000001</v>
       </c>
-      <c r="Q5" s="47">
-        <v>84</v>
-      </c>
-      <c r="R5" s="47">
+      <c r="Q5" s="44">
+        <v>73</v>
+      </c>
+      <c r="R5" s="44">
         <v>2</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="46">
         <f t="shared" si="2"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="T5" s="19">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="T5" s="16">
         <v>20</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="17">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="V5" s="55">
+        <v>33</v>
+      </c>
+      <c r="V5" s="52">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="A6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="29">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="F6" s="33">
+        <v>73</v>
+      </c>
+      <c r="F6" s="30">
         <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G6" s="32">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="G6" s="29">
         <v>20</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="31">
         <f t="shared" si="6"/>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="53">
+        <v>32.87671232876712</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="50">
         <v>271.42857142857144</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="13"/>
       <c r="L6">
         <v>3</v>
       </c>
-      <c r="M6" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="47">
+      <c r="M6" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="44">
         <v>1.2458</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="44">
         <v>12.013500000000001</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="19">
         <f>N6+O6</f>
         <v>13.2593</v>
       </c>
-      <c r="Q6" s="47">
-        <v>166</v>
-      </c>
-      <c r="R6" s="47">
+      <c r="Q6" s="44">
+        <v>253</v>
+      </c>
+      <c r="R6" s="44">
         <v>2</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="46">
         <f>60/(Q6)</f>
-        <v>0.36144578313253012</v>
-      </c>
-      <c r="T6" s="19">
+        <v>0.23715415019762845</v>
+      </c>
+      <c r="T6" s="16">
         <v>20</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U6" s="17">
         <f>ROUND(R6*S6*T6,0)</f>
-        <v>14</v>
-      </c>
-      <c r="V6" s="55">
+        <v>9</v>
+      </c>
+      <c r="V6" s="52">
         <f>R6/W$2</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="A7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="29">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="F7" s="33">
+        <v>73</v>
+      </c>
+      <c r="F7" s="30">
         <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G7" s="32">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="G7" s="29">
         <v>20</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="31">
         <f t="shared" si="6"/>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="16">
+        <v>32.87671232876712</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="13">
         <v>271.42857142857144</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="13"/>
       <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="47">
+      <c r="M7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="44">
         <v>0.99280000000000002</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="44">
         <v>9.0292999999999992</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="47">
         <f>N7+O7</f>
         <v>10.0221</v>
       </c>
-      <c r="Q7" s="47">
-        <v>111</v>
-      </c>
-      <c r="R7" s="47">
+      <c r="Q7" s="44">
+        <v>130</v>
+      </c>
+      <c r="R7" s="44">
         <v>1</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="46">
         <f>60/(Q7)</f>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20">
-        <f>SUM(U2:U6)</f>
-        <v>146</v>
-      </c>
-      <c r="V7" s="55">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17">
+        <f>ROUND(R7*S7*T7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="52">
         <f>SUM(V2:V6)</f>
         <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="A8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="29">
         <v>1</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="29">
         <f t="shared" ref="D8" si="8">VLOOKUP(A8,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="29">
         <f t="shared" ref="E8" si="9">VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
-        <v>84</v>
-      </c>
-      <c r="F8" s="33">
+        <v>73</v>
+      </c>
+      <c r="F8" s="30">
         <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G8" s="32">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="G8" s="29">
         <v>20</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="31">
         <f t="shared" ref="H8" si="10">D8*F8*G8</f>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="16">
+        <v>32.87671232876712</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="13">
         <v>171.42857142857142</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="32">
+      <c r="A9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="29">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="F9" s="33">
+        <v>73</v>
+      </c>
+      <c r="F9" s="30">
         <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G9" s="32">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="G9" s="29">
         <v>20</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="31">
         <f t="shared" si="6"/>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="16">
+        <v>32.87671232876712</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="13">
         <v>292.01680672268907</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="32">
+      <c r="A10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="29">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="F10" s="33">
+        <v>73</v>
+      </c>
+      <c r="F10" s="30">
         <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G10" s="32">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="G10" s="29">
         <v>20</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="31">
         <f t="shared" si="6"/>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="16">
+        <v>32.87671232876712</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="13">
         <v>70.588235294117652</v>
       </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="54">
+        <v>69</v>
+      </c>
+      <c r="O10" s="54">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="28">
+      <c r="B11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="F11" s="29">
+        <v>65</v>
+      </c>
+      <c r="F11" s="26">
         <f t="shared" si="5"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G11" s="28">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G11" s="25">
         <v>20</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="27">
         <f t="shared" si="6"/>
-        <v>52.173913043478265</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="16">
+        <v>55.384615384615387</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="13">
         <v>92.307692307692292</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="54">
+        <v>55</v>
+      </c>
+      <c r="O11" s="54">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="A12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="25">
         <v>1</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="25">
         <f t="shared" ref="D12:D30" si="11">VLOOKUP(A12,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="25">
         <f t="shared" ref="E12:E30" si="12">VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
-        <v>69</v>
-      </c>
-      <c r="F12" s="29">
+        <v>65</v>
+      </c>
+      <c r="F12" s="26">
         <f t="shared" si="5"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G12" s="28">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G12" s="25">
         <v>20</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="27">
         <f t="shared" si="6"/>
-        <v>52.173913043478265</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="16">
+        <v>55.384615384615387</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="13">
         <v>92.307692307692292</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="54">
+        <v>41</v>
+      </c>
+      <c r="O12" s="54">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="A13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="25">
         <v>1</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="25">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="25">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="F13" s="29">
+        <v>65</v>
+      </c>
+      <c r="F13" s="26">
         <f t="shared" si="5"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G13" s="28">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G13" s="25">
         <v>20</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="27">
         <f t="shared" ref="H13" si="13">D13*F13*G13</f>
-        <v>52.173913043478265</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="16">
+        <v>55.384615384615387</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="13">
         <v>92.307692307692292</v>
       </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="54">
+        <v>84</v>
+      </c>
+      <c r="O13" s="54">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="A14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="25">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="25">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="F14" s="29">
+        <v>65</v>
+      </c>
+      <c r="F14" s="26">
         <f t="shared" si="5"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G14" s="28">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G14" s="25">
         <v>20</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <f t="shared" si="6"/>
-        <v>52.173913043478265</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="16">
+        <v>55.384615384615387</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="13">
         <v>2885.5122818358118</v>
       </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="54">
+        <v>166</v>
+      </c>
+      <c r="O14" s="54">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="A15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="25">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="F15" s="29">
+        <v>65</v>
+      </c>
+      <c r="F15" s="26">
         <f t="shared" si="5"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G15" s="28">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G15" s="25">
         <v>20</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="27">
         <f t="shared" si="6"/>
-        <v>52.173913043478265</v>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="54">
+        <v>111</v>
+      </c>
+      <c r="O15" s="54">
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="A16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="25">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="5"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G16" s="25">
+        <v>20</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="6"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="L16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="29">
-        <f t="shared" si="5"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G16" s="28">
-        <v>20</v>
-      </c>
-      <c r="H16" s="30">
-        <f t="shared" si="6"/>
-        <v>52.173913043478265</v>
+      <c r="N16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="A17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="25">
         <v>1</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="25">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="25">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="F17" s="29">
+        <v>65</v>
+      </c>
+      <c r="F17" s="26">
         <f t="shared" si="5"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G17" s="28">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G17" s="25">
         <v>20</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="27">
         <f>D17*F17*G17</f>
-        <v>52.173913043478265</v>
+        <v>55.384615384615387</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="A18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="25">
         <v>1</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="25">
         <f t="shared" ref="D18:D21" si="14">VLOOKUP(A18,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="25">
         <f t="shared" ref="E18:E21" si="15">VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
-        <v>69</v>
-      </c>
-      <c r="F18" s="29">
+        <v>65</v>
+      </c>
+      <c r="F18" s="26">
         <f t="shared" ref="F18:F21" si="16">60/E18*C18</f>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G18" s="28">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G18" s="25">
         <v>20</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="27">
         <f t="shared" ref="H18:H21" si="17">D18*F18*G18</f>
-        <v>52.173913043478265</v>
+        <v>55.384615384615387</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="32">
+      <c r="A19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="29">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="29">
         <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="F19" s="33">
+        <v>52</v>
+      </c>
+      <c r="F19" s="30">
         <f t="shared" si="16"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G19" s="32">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="G19" s="29">
         <v>20</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="31">
         <f t="shared" si="17"/>
-        <v>21.818181818181817</v>
+        <v>23.076923076923073</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="32">
+      <c r="B20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="29">
         <v>1</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="29">
         <f t="shared" ref="D20" si="18">VLOOKUP(A20,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="29">
         <f t="shared" ref="E20" si="19">VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="F20" s="33">
+        <v>52</v>
+      </c>
+      <c r="F20" s="30">
         <f t="shared" ref="F20" si="20">60/E20*C20</f>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G20" s="32">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="G20" s="29">
         <v>20</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="31">
         <f t="shared" ref="H20" si="21">D20*F20*G20</f>
-        <v>21.818181818181817</v>
+        <v>23.076923076923073</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="32">
+      <c r="A21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="29">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="29">
         <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="F21" s="33">
+        <v>52</v>
+      </c>
+      <c r="F21" s="30">
         <f t="shared" si="16"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G21" s="32">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="G21" s="29">
         <v>20</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="31">
         <f t="shared" si="17"/>
-        <v>21.818181818181817</v>
+        <v>23.076923076923073</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="32">
+      <c r="A22" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="29">
         <v>1</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="29">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="29">
         <f t="shared" si="12"/>
-        <v>55</v>
-      </c>
-      <c r="F22" s="33">
+        <v>52</v>
+      </c>
+      <c r="F22" s="30">
         <f t="shared" si="5"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="G22" s="32">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="G22" s="29">
         <v>20</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="31">
         <f>D22*F22*G22</f>
-        <v>21.818181818181817</v>
+        <v>23.076923076923073</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="32">
+      <c r="A23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="29">
         <v>0</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="29">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="29">
         <f t="shared" si="12"/>
-        <v>55</v>
-      </c>
-      <c r="F23" s="33">
+        <v>52</v>
+      </c>
+      <c r="F23" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="29">
         <v>20</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="28">
+      <c r="A24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="25">
         <v>1</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="25">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="F24" s="29">
+        <v>39</v>
+      </c>
+      <c r="F24" s="26">
         <f t="shared" si="5"/>
-        <v>1.4634146341463414</v>
-      </c>
-      <c r="G24" s="28">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="G24" s="25">
         <v>20</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="27">
         <f t="shared" si="6"/>
-        <v>29.268292682926827</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="A25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="25">
         <v>1</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="25">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="F25" s="29">
+        <v>39</v>
+      </c>
+      <c r="F25" s="26">
         <f t="shared" si="5"/>
-        <v>1.4634146341463414</v>
-      </c>
-      <c r="G25" s="28">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="G25" s="25">
         <v>20</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="27">
         <f t="shared" si="6"/>
-        <v>29.268292682926827</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="A26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="25">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="F26" s="29">
+        <v>39</v>
+      </c>
+      <c r="F26" s="26">
         <f t="shared" si="5"/>
-        <v>1.4634146341463414</v>
-      </c>
-      <c r="G26" s="28">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="G26" s="25">
         <v>20</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="27">
         <f t="shared" si="6"/>
-        <v>29.268292682926827</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="28">
+      <c r="A27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="25">
         <v>1</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="25">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="F27" s="29">
+        <v>39</v>
+      </c>
+      <c r="F27" s="26">
         <f t="shared" si="5"/>
-        <v>1.4634146341463414</v>
-      </c>
-      <c r="G27" s="28">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="G27" s="25">
         <v>20</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="27">
         <f t="shared" ref="H27" si="22">D27*F27*G27</f>
-        <v>29.268292682926827</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="32">
+      <c r="A28" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="29">
         <v>1</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="29">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="29">
         <f t="shared" si="12"/>
-        <v>166</v>
-      </c>
-      <c r="F28" s="33">
+        <v>253</v>
+      </c>
+      <c r="F28" s="30">
         <f t="shared" si="5"/>
-        <v>0.36144578313253012</v>
-      </c>
-      <c r="G28" s="32">
+        <v>0.23715415019762845</v>
+      </c>
+      <c r="G28" s="29">
         <v>20</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="31">
         <f t="shared" si="6"/>
-        <v>14.457831325301205</v>
+        <v>9.4861660079051386</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="A29" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="29">
         <v>1</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="29">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="29">
         <f t="shared" si="12"/>
-        <v>166</v>
-      </c>
-      <c r="F29" s="33">
+        <v>253</v>
+      </c>
+      <c r="F29" s="30">
         <f t="shared" si="5"/>
-        <v>0.36144578313253012</v>
-      </c>
-      <c r="G29" s="32">
+        <v>0.23715415019762845</v>
+      </c>
+      <c r="G29" s="29">
         <v>20</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="31">
         <f t="shared" si="6"/>
-        <v>14.457831325301205</v>
+        <v>9.4861660079051386</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="A30" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="29">
         <v>1</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="29">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="29">
         <f t="shared" si="12"/>
-        <v>166</v>
-      </c>
-      <c r="F30" s="33">
+        <v>253</v>
+      </c>
+      <c r="F30" s="30">
         <f t="shared" si="5"/>
-        <v>0.36144578313253012</v>
-      </c>
-      <c r="G30" s="32">
+        <v>0.23715415019762845</v>
+      </c>
+      <c r="G30" s="29">
         <v>20</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="31">
         <f t="shared" si="6"/>
-        <v>14.457831325301205</v>
+        <v>9.4861660079051386</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="32">
+      <c r="A31" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="29">
         <v>1</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="29">
         <f t="shared" ref="D31" si="23">VLOOKUP(A31,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="29">
         <f t="shared" ref="E31" si="24">VLOOKUP(A31,$M$1:$W$8,5,FALSE)</f>
-        <v>166</v>
-      </c>
-      <c r="F31" s="33">
+        <v>253</v>
+      </c>
+      <c r="F31" s="30">
         <f t="shared" ref="F31" si="25">60/E31*C31</f>
-        <v>0.36144578313253012</v>
-      </c>
-      <c r="G31" s="32">
+        <v>0.23715415019762845</v>
+      </c>
+      <c r="G31" s="29">
         <v>20</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="31">
         <f t="shared" ref="H31" si="26">D31*F31*G31</f>
-        <v>14.457831325301205</v>
+        <v>9.4861660079051386</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="70" x14ac:dyDescent="0.4">
-      <c r="A33" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>56</v>
+      <c r="A33" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="43">
+      <c r="A34" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="40">
         <v>520</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="33">
         <f t="shared" ref="C34:C45" si="27">GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)</f>
         <v>521.82449903038139</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="49">
         <f t="shared" ref="D34:D36" si="28">1-B34/C34</f>
         <v>3.4963843855003729E-3</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38">
+      <c r="E34" s="34"/>
+      <c r="F34" s="35">
         <f t="shared" ref="F34:F45" si="29">C34/3</f>
         <v>173.9414996767938</v>
       </c>
-      <c r="G34" s="38">
-        <f>VLOOKUP(A34,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>172</v>
-      </c>
-      <c r="H34" s="39">
+      <c r="G34" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A34,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>165</v>
+      </c>
+      <c r="H34" s="36">
         <f t="shared" ref="H34:H45" si="30">1-F34/G34</f>
-        <v>-1.1287788818568512E-2</v>
+        <v>-5.4190907132083632E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="43">
+      <c r="A35" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="40">
         <v>422</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="33">
         <f t="shared" si="27"/>
         <v>429.51680672268913</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="49">
         <f t="shared" si="28"/>
         <v>1.7500611396429555E-2</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38">
+      <c r="E35" s="34"/>
+      <c r="F35" s="35">
         <f t="shared" si="29"/>
         <v>143.17226890756305</v>
       </c>
-      <c r="G35" s="38">
-        <f>VLOOKUP(A35,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>142</v>
-      </c>
-      <c r="H35" s="39">
+      <c r="G35" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A35,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>134</v>
+      </c>
+      <c r="H35" s="36">
         <f t="shared" si="30"/>
-        <v>-8.2554148419933249E-3</v>
+        <v>-6.8449767966888508E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="43">
+      <c r="A36" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="40">
         <v>282</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="33">
         <f t="shared" si="27"/>
         <v>271.42857142857144</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="49">
         <f t="shared" si="28"/>
         <v>-3.8947368421052619E-2</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38">
+      <c r="E36" s="34"/>
+      <c r="F36" s="35">
         <f t="shared" si="29"/>
         <v>90.476190476190482</v>
       </c>
-      <c r="G36" s="38">
-        <f>VLOOKUP(A36,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>89</v>
-      </c>
-      <c r="H36" s="39">
+      <c r="G36" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A36,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>91</v>
+      </c>
+      <c r="H36" s="36">
         <f t="shared" si="30"/>
-        <v>-1.6586409844836947E-2</v>
+        <v>5.7561486132914341E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="43">
+      <c r="A37" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="40">
         <v>282</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="37">
         <f t="shared" si="27"/>
         <v>271.42857142857144</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="48">
         <f t="shared" ref="D37:D46" si="31">1-B37/C37</f>
         <v>-3.8947368421052619E-2</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38">
+      <c r="E37" s="34"/>
+      <c r="F37" s="35">
         <f t="shared" si="29"/>
         <v>90.476190476190482</v>
       </c>
-      <c r="G37" s="38">
-        <f>VLOOKUP(A37,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>89</v>
-      </c>
-      <c r="H37" s="39">
+      <c r="G37" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A37,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>91</v>
+      </c>
+      <c r="H37" s="36">
         <f t="shared" si="30"/>
-        <v>-1.6586409844836947E-2</v>
+        <v>5.7561486132914341E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="43">
+      <c r="A38" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="40">
         <v>270</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="37">
         <f t="shared" si="27"/>
         <v>271.42857142857144</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="48">
         <f t="shared" si="31"/>
         <v>5.2631578947368585E-3</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38">
+      <c r="E38" s="34"/>
+      <c r="F38" s="35">
         <f t="shared" si="29"/>
         <v>90.476190476190482</v>
       </c>
-      <c r="G38" s="38">
-        <f>VLOOKUP(A38,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>89</v>
-      </c>
-      <c r="H38" s="39">
+      <c r="G38" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A38,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>91</v>
+      </c>
+      <c r="H38" s="36">
         <f t="shared" si="30"/>
-        <v>-1.6586409844836947E-2</v>
+        <v>5.7561486132914341E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="43">
+      <c r="A39" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="40">
         <v>175</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="37">
         <f t="shared" si="27"/>
         <v>171.42857142857142</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="48">
         <f t="shared" si="31"/>
         <v>-2.0833333333333481E-2</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38">
+      <c r="E39" s="34"/>
+      <c r="F39" s="35">
         <f t="shared" si="29"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="G39" s="38">
-        <f>VLOOKUP(A39,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
+      <c r="G39" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A39,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
         <v>57</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="36">
         <f t="shared" si="30"/>
         <v>-2.5062656641603454E-3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="43">
+      <c r="A40" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="40">
         <v>280</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="37">
         <f t="shared" si="27"/>
         <v>292.01680672268907</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="48">
         <f t="shared" si="31"/>
         <v>4.1151079136690583E-2</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38">
+      <c r="E40" s="34"/>
+      <c r="F40" s="35">
         <f t="shared" si="29"/>
         <v>97.338935574229694</v>
       </c>
-      <c r="G40" s="38">
-        <f>VLOOKUP(A40,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>98</v>
-      </c>
-      <c r="H40" s="39">
+      <c r="G40" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A40,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="H40" s="36">
         <f t="shared" si="30"/>
-        <v>6.7455553650030975E-3</v>
+        <v>-8.1543728602552212E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="43">
+      <c r="A41" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="40">
         <v>73</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="37">
         <f t="shared" si="27"/>
         <v>70.588235294117652</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="48">
         <f t="shared" si="31"/>
         <v>-3.4166666666666679E-2</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="38">
+      <c r="F41" s="35">
         <f t="shared" si="29"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="G41" s="38">
-        <f>VLOOKUP(A41,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
+      <c r="G41" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A41,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="36">
         <f t="shared" si="30"/>
         <v>-2.3017902813299296E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="43">
+      <c r="A42" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="40">
         <v>325</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="37">
         <f t="shared" si="27"/>
         <v>308.92857142857144</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="48">
         <f t="shared" si="31"/>
         <v>-5.2023121387283267E-2</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38">
+      <c r="E42" s="34"/>
+      <c r="F42" s="35">
         <f t="shared" si="29"/>
         <v>102.97619047619048</v>
       </c>
-      <c r="G42" s="38">
-        <f>VLOOKUP(A42,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>149</v>
-      </c>
-      <c r="H42" s="39">
+      <c r="G42" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A42,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>111</v>
+      </c>
+      <c r="H42" s="36">
         <f t="shared" si="30"/>
-        <v>0.30888462767657399</v>
+        <v>7.2286572286572204E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="43">
+      <c r="A43" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="40">
         <v>97</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="37">
         <f t="shared" si="27"/>
         <v>92.307692307692292</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="38">
         <f t="shared" si="31"/>
         <v>-5.0833333333333508E-2</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38">
+      <c r="E43" s="34"/>
+      <c r="F43" s="35">
         <f t="shared" si="29"/>
         <v>30.769230769230763</v>
       </c>
-      <c r="G43" s="38">
-        <f>VLOOKUP(A43,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="H43" s="39">
+      <c r="G43" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A43,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H43" s="36">
         <f t="shared" si="30"/>
-        <v>-2.5641025641025328E-2</v>
+        <v>7.4441687344914964E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="43">
+      <c r="A44" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="40">
         <v>97</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="37">
         <f t="shared" si="27"/>
         <v>92.307692307692292</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="38">
         <f t="shared" si="31"/>
         <v>-5.0833333333333508E-2</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38">
+      <c r="E44" s="34"/>
+      <c r="F44" s="35">
         <f t="shared" si="29"/>
         <v>30.769230769230763</v>
       </c>
-      <c r="G44" s="38">
-        <f>VLOOKUP(A44,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="H44" s="39">
+      <c r="G44" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A44,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H44" s="36">
         <f t="shared" si="30"/>
-        <v>-2.5641025641025328E-2</v>
+        <v>7.4441687344914964E-3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="43">
+      <c r="A45" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="40">
         <v>97</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="37">
         <f t="shared" si="27"/>
         <v>92.307692307692292</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="38">
         <f t="shared" si="31"/>
         <v>-5.0833333333333508E-2</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38">
+      <c r="E45" s="34"/>
+      <c r="F45" s="35">
         <f t="shared" si="29"/>
         <v>30.769230769230763</v>
       </c>
-      <c r="G45" s="38">
-        <f>VLOOKUP(A45,'Summary Report'!$A$2:$J$28,8,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="H45" s="39">
+      <c r="G45" s="35">
+        <f>VLOOKUP('Автоматизированный расчет'!A45,'Summary Report'!$A$1:$J$13,8,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H45" s="36">
         <f t="shared" si="30"/>
-        <v>-2.5641025641025328E-2</v>
+        <v>7.4441687344914964E-3</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="43">
+      <c r="A46" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="40">
         <f>SUM(B34:B45)</f>
         <v>2920</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="18">
         <f>SUM(C34:C45)</f>
         <v>2885.5122818358113</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="38">
         <f t="shared" si="31"/>
         <v>-1.1952026120729986E-2</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3983,18 +4108,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:O44"/>
+  <dimension ref="C9:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:I9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="4.453125" customWidth="1"/>
     <col min="3" max="4" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" customWidth="1"/>
     <col min="7" max="7" width="15.36328125" customWidth="1"/>
     <col min="8" max="8" width="15.1796875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -4008,593 +4133,774 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E9" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="E9" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="11" spans="5:9" ht="28" x14ac:dyDescent="0.35">
       <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="5:9" ht="30" x14ac:dyDescent="0.35">
       <c r="E12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="G12" s="5">
-        <v>368</v>
+        <f>173*3</f>
+        <v>519</v>
       </c>
       <c r="H12" s="4">
-        <f>121*3</f>
-        <v>363</v>
+        <f>165*3</f>
+        <v>495</v>
       </c>
       <c r="I12" s="6">
         <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+        <v>-4.8484848484848575E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="15" x14ac:dyDescent="0.35">
       <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="G13" s="5">
-        <v>251</v>
+        <f>143*3</f>
+        <v>429</v>
       </c>
       <c r="H13" s="4">
-        <f>82*3</f>
-        <v>246</v>
+        <f>134*3</f>
+        <v>402</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I13:I14" si="0">1-G13/H13</f>
+        <v>-6.7164179104477695E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="15" x14ac:dyDescent="0.35">
       <c r="E14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="5">
-        <v>251</v>
+        <f>90*3</f>
+        <v>270</v>
       </c>
       <c r="H14" s="4">
-        <f>82*3</f>
-        <v>246</v>
+        <f>91*3</f>
+        <v>273</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+        <v>1.098901098901095E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="30" x14ac:dyDescent="0.35">
       <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
+        <f>90*3</f>
+        <v>270</v>
+      </c>
+      <c r="H15" s="4">
+        <f>91*3</f>
+        <v>273</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" ref="I15:I23" si="1">1-G15/H15</f>
+        <v>1.098901098901095E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="5">
+        <f>90*3</f>
+        <v>270</v>
+      </c>
+      <c r="H16" s="4">
+        <f>91*3</f>
+        <v>273</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.098901098901095E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5">
+        <f>57*3</f>
+        <v>171</v>
+      </c>
+      <c r="H17" s="4">
+        <f>57*3</f>
+        <v>171</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="5">
+        <f>97*3</f>
+        <v>291</v>
+      </c>
+      <c r="H18" s="5">
+        <f>90*3</f>
+        <v>270</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.7777777777777724E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="5">
+        <f>23*3</f>
+        <v>69</v>
+      </c>
+      <c r="H19" s="5">
+        <f>23*3</f>
+        <v>69</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5">
-        <v>175</v>
-      </c>
-      <c r="H15" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5">
-        <v>159</v>
-      </c>
-      <c r="H16" s="5">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="45" x14ac:dyDescent="0.35">
-      <c r="E17" s="3" t="s">
+      <c r="G20" s="5">
+        <f>102*3</f>
+        <v>306</v>
+      </c>
+      <c r="H20" s="4">
+        <f>111*3</f>
+        <v>333</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>8.108108108108103E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5">
+        <f>30*3</f>
+        <v>90</v>
+      </c>
+      <c r="H21" s="4">
+        <f>31*3</f>
+        <v>93</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="E22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="5">
+        <f>30*3</f>
+        <v>90</v>
+      </c>
+      <c r="H22" s="4">
+        <f>31*3</f>
+        <v>93</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="5">
+        <f>30*3</f>
+        <v>90</v>
+      </c>
+      <c r="H23" s="4">
+        <f>31*3</f>
+        <v>93</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E28" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="10">
+        <v>522</v>
+      </c>
+      <c r="H31" s="9">
+        <v>495</v>
+      </c>
+      <c r="I31" s="11">
+        <f>1-G31/H31</f>
+        <v>-5.4545454545454453E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="10">
+        <v>430</v>
+      </c>
+      <c r="H32" s="9">
+        <v>402</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" ref="I32:I42" si="2">1-G32/H32</f>
+        <v>-6.9651741293532243E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="10">
+        <v>271</v>
+      </c>
+      <c r="H33" s="9">
+        <v>273</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="2"/>
+        <v>7.3260073260073E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="10">
+        <v>271</v>
+      </c>
+      <c r="H34" s="9">
+        <v>273</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="2"/>
+        <v>7.3260073260073E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="10">
+        <v>271</v>
+      </c>
+      <c r="H35" s="9">
+        <v>273</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="2"/>
+        <v>7.3260073260073E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="10">
+        <v>171</v>
+      </c>
+      <c r="H36" s="9">
+        <v>171</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="10">
+        <v>292</v>
+      </c>
+      <c r="H37" s="9">
+        <v>273</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="2"/>
+        <v>-6.9597069597069572E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="10">
+        <v>71</v>
+      </c>
+      <c r="H38" s="9">
+        <v>69</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="2"/>
+        <v>-2.8985507246376718E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F39" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="10">
+        <v>309</v>
+      </c>
+      <c r="H39" s="9">
+        <v>333</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="2"/>
+        <v>7.2072072072072113E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="E40" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="10">
+        <v>92</v>
+      </c>
+      <c r="H40" s="9">
+        <v>93</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0752688172043001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="E41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="10">
+        <v>92</v>
+      </c>
+      <c r="H41" s="9">
+        <v>93</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0752688172043001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E42" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="10">
+        <v>92</v>
+      </c>
+      <c r="H42" s="9">
+        <v>93</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0752688172043001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E45" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="10">
+        <v>522</v>
+      </c>
+      <c r="H48" s="9">
+        <f>174*3</f>
+        <v>522</v>
+      </c>
+      <c r="I48" s="11">
+        <f>1-G48/H48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E49" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="10">
+        <v>430</v>
+      </c>
+      <c r="H49" s="9">
+        <f>141*3</f>
+        <v>423</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" ref="I49:I59" si="3">1-G49/H49</f>
+        <v>-1.6548463356973908E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E50" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="10">
+        <v>271</v>
+      </c>
+      <c r="H50" s="9">
+        <f>96*3</f>
+        <v>288</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="3"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="E51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="10">
+        <v>271</v>
+      </c>
+      <c r="H51" s="9">
+        <f>96*3</f>
+        <v>288</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="3"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="10">
+        <v>271</v>
+      </c>
+      <c r="H52" s="9">
+        <f>96*3</f>
+        <v>288</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="3"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="10">
+        <v>171</v>
+      </c>
+      <c r="H53" s="9">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E54" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="4">
+      <c r="F54" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="10">
+        <v>292</v>
+      </c>
+      <c r="H54" s="9">
+        <f>95*3</f>
+        <v>285</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="3"/>
+        <v>-2.4561403508772006E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E55" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="10">
+        <v>71</v>
+      </c>
+      <c r="H55" s="9">
         <f>25*3</f>
         <v>75</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="5">
-        <v>326</v>
-      </c>
-      <c r="H18" s="4">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E23" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="11">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H26" s="10">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="12">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H27" s="10">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H28" s="10">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E29" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="I55" s="11">
+        <f t="shared" si="3"/>
+        <v>5.3333333333333344E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="11">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H29" s="10">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="11">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="10">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="11">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="10">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="12">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="E32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="11">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="10">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E35" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="E38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="11">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="10">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="12">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="15">
-        <v>377</v>
-      </c>
-      <c r="N38" s="15">
-        <v>27</v>
-      </c>
-      <c r="O38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="E39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="15">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="15">
-        <v>998</v>
-      </c>
-      <c r="N39" s="15">
-        <v>1</v>
-      </c>
-      <c r="O39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="E40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="10">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="12">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="15">
-        <v>0</v>
-      </c>
-      <c r="O40" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="E41" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="11">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="15">
-        <v>924</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N41" s="15">
-        <v>139</v>
-      </c>
-      <c r="O41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="E42" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="11">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="15">
-        <v>998</v>
-      </c>
-      <c r="I42" s="12">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="15">
-        <v>1</v>
-      </c>
-      <c r="O42" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="E43" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="11">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="15">
-        <v>404</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="15">
-        <v>924</v>
-      </c>
-      <c r="N43" s="15">
-        <v>0</v>
-      </c>
-      <c r="O43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="E44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="11">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="10">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="12">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="15">
-        <v>0</v>
-      </c>
-      <c r="O44" s="15">
-        <v>0</v>
+      <c r="G56" s="10">
+        <v>309</v>
+      </c>
+      <c r="H56" s="9">
+        <f>116*3</f>
+        <v>348</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="3"/>
+        <v>0.11206896551724133</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="E57" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="10">
+        <v>92</v>
+      </c>
+      <c r="H57" s="9">
+        <f>33*3</f>
+        <v>99</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="3"/>
+        <v>7.0707070707070718E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="E58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="10">
+        <v>92</v>
+      </c>
+      <c r="H58" s="9">
+        <f>33*3</f>
+        <v>99</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="3"/>
+        <v>7.0707070707070718E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="E59" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="10">
+        <v>92</v>
+      </c>
+      <c r="H59" s="9">
+        <f>32*3</f>
+        <v>96</v>
+      </c>
+      <c r="I59" s="11">
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E35:I35"/>
+  <mergeCells count="2">
+    <mergeCell ref="E28:I28"/>
     <mergeCell ref="E9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4603,7 +4909,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="J13" sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4611,884 +4917,437 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" customWidth="1"/>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="4" max="5" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="A1" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="55">
+        <v>0.113</v>
+      </c>
+      <c r="D2" s="55">
+        <v>0.18</v>
+      </c>
+      <c r="E2" s="55">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F2" s="55">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G2" s="55">
+        <v>0.222</v>
+      </c>
+      <c r="H2" s="55">
+        <v>31</v>
+      </c>
+      <c r="I2" s="55">
+        <v>0</v>
+      </c>
+      <c r="J2" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="55">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D3" s="55">
+        <v>0.215</v>
+      </c>
+      <c r="E3" s="55">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F3" s="55">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G3" s="55">
+        <v>0.32</v>
+      </c>
+      <c r="H3" s="55">
+        <v>91</v>
+      </c>
+      <c r="I3" s="55">
+        <v>0</v>
+      </c>
+      <c r="J3" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="55">
+        <v>0.158</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0.307</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0.161</v>
+      </c>
+      <c r="G4" s="55">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H4" s="55">
+        <v>90</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="55">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.105</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F5" s="55">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0.13</v>
+      </c>
+      <c r="H5" s="55">
+        <v>31</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="55">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.104</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F6" s="55">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0.152</v>
+      </c>
+      <c r="H6" s="55">
+        <v>31</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="55">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0.108</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F7" s="55">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G7" s="55">
+        <v>0.161</v>
+      </c>
+      <c r="H7" s="55">
+        <v>91</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="55">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0.122</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F8" s="55">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G8" s="55">
+        <v>0.193</v>
+      </c>
+      <c r="H8" s="55">
+        <v>91</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="55">
+        <v>0.11</v>
+      </c>
+      <c r="D9" s="55">
+        <v>0.155</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F9" s="55">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G9" s="55">
+        <v>0.18</v>
+      </c>
+      <c r="H9" s="55">
+        <v>165</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="55">
+        <v>0.124</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.246</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F10" s="55">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G10" s="55">
+        <v>0.41</v>
+      </c>
+      <c r="H10" s="55">
+        <v>134</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="55">
+        <v>0.107</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F11" s="55">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G11" s="55">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H11" s="55">
+        <v>111</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="55">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.121</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.27</v>
+      </c>
+      <c r="F12" s="55">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G12" s="55">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H12" s="55">
+        <v>57</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0</v>
+      </c>
+      <c r="J12" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="55">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0.222</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0.109</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H13" s="55">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>1.125</v>
-      </c>
-      <c r="D2">
-        <v>1.29</v>
-      </c>
-      <c r="E2">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="F2">
-        <v>0.121</v>
-      </c>
-      <c r="G2">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="H2">
-        <v>57</v>
-      </c>
-      <c r="I2">
+      <c r="I13" s="55">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J13" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3">
-        <v>0.112</v>
-      </c>
-      <c r="D3">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.253</v>
-      </c>
-      <c r="F3">
-        <v>0.03</v>
-      </c>
-      <c r="G3">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="F4">
-        <v>0.107</v>
-      </c>
-      <c r="G4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="H4">
-        <v>89</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>0.16</v>
-      </c>
-      <c r="D5">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.313</v>
-      </c>
-      <c r="F5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="H5">
-        <v>98</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D6">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="F6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G6">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="F7">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D8">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="F8">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="D9">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E9">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="F9">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="H9">
-        <v>23</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D10">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
-      <c r="G10">
-        <v>0.12</v>
-      </c>
-      <c r="H10">
-        <v>89</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.127</v>
-      </c>
-      <c r="H11">
-        <v>89</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.02</v>
-      </c>
-      <c r="G12">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="H12">
-        <v>172</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13">
-        <v>0.127</v>
-      </c>
-      <c r="D13">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="F13">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.252</v>
-      </c>
-      <c r="H13">
-        <v>142</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="D14">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="F14">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.161</v>
-      </c>
-      <c r="H14">
-        <v>149</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15">
-        <v>0.08</v>
-      </c>
-      <c r="D15">
-        <v>0.109</v>
-      </c>
-      <c r="E15">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F15">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G15">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H15">
-        <v>57</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="D16">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="E16">
-        <v>1.095</v>
-      </c>
-      <c r="F16">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17">
-        <v>0.128</v>
-      </c>
-      <c r="D17">
-        <v>0.152</v>
-      </c>
-      <c r="E17">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="F17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G17">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H17">
-        <v>23</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="D18">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="E18">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="F18">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="D19">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="E19">
-        <v>1.095</v>
-      </c>
-      <c r="F19">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="H19">
-        <v>32</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>1.125</v>
-      </c>
-      <c r="D20">
-        <v>1.29</v>
-      </c>
-      <c r="E20">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.121</v>
-      </c>
-      <c r="G20">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="H20">
-        <v>57</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="D21">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E21">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="F21">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="H21">
-        <v>23</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="E22">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="F22">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D23">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="E23">
-        <v>0.72</v>
-      </c>
-      <c r="F23">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G23">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="D24">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="E24">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="F24">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G24">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="D25">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="E25">
-        <v>0.72</v>
-      </c>
-      <c r="F25">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G25">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="H25">
-        <v>18</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1E-3</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
